--- a/regionseng/8/business sector/by size.xlsx
+++ b/regionseng/8/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BDF08-C442-4280-8A19-2956CE546D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
@@ -242,6 +243,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -466,7 +501,7 @@
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +510,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -484,14 +519,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -538,8 +573,14 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,8 +629,14 @@
       <c r="P6" s="6">
         <v>5612.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="6">
+        <v>6897.8</v>
+      </c>
+      <c r="R6" s="6">
+        <v>8743.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -638,8 +685,14 @@
       <c r="P7" s="7">
         <v>2809.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="7">
+        <v>3955.1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>4921.8999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -688,8 +741,14 @@
       <c r="P8" s="7">
         <v>1149.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="7">
+        <v>1281.3</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1777.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -738,8 +797,14 @@
       <c r="P9" s="7">
         <v>1653.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="7">
+        <v>1661.4</v>
+      </c>
+      <c r="R9" s="7">
+        <v>2043.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -748,7 +813,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -795,8 +860,14 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,8 +916,14 @@
       <c r="P14" s="6">
         <v>3885.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="6">
+        <v>4738.3999999999996</v>
+      </c>
+      <c r="R14" s="6">
+        <v>5780.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -895,8 +972,14 @@
       <c r="P15" s="7">
         <v>2352.3000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="7">
+        <v>3045.6</v>
+      </c>
+      <c r="R15" s="7">
+        <v>3665.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -945,8 +1028,14 @@
       <c r="P16" s="7">
         <v>768.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="7">
+        <v>874.9</v>
+      </c>
+      <c r="R16" s="7">
+        <v>987.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -995,8 +1084,14 @@
       <c r="P17" s="7">
         <v>764.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="7">
+        <v>817.9</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1126.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1100,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1052,8 +1147,14 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1102,8 +1203,14 @@
       <c r="P22" s="8">
         <v>39282.199999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="8">
+        <v>44567</v>
+      </c>
+      <c r="R22" s="8">
+        <v>47362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1152,8 +1259,14 @@
       <c r="P23" s="9">
         <v>12551</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="9">
+        <v>15763</v>
+      </c>
+      <c r="R23" s="9">
+        <v>16778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,8 +1315,14 @@
       <c r="P24" s="9">
         <v>7197.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="9">
+        <v>7348</v>
+      </c>
+      <c r="R24" s="9">
+        <v>7341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1252,8 +1371,14 @@
       <c r="P25" s="9">
         <v>19533.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="9">
+        <v>21456</v>
+      </c>
+      <c r="R25" s="9">
+        <v>23243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1387,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1309,8 +1434,14 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1359,8 +1490,14 @@
       <c r="P30" s="6">
         <v>1111.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="6">
+        <v>1181.5999999999999</v>
+      </c>
+      <c r="R30" s="6">
+        <v>1374.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -1409,8 +1546,14 @@
       <c r="P31" s="7">
         <v>1627</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="7">
+        <v>1609.8</v>
+      </c>
+      <c r="R31" s="7">
+        <v>1837.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1459,8 +1602,14 @@
       <c r="P32" s="7">
         <v>1249.5999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="7">
+        <v>1365.9</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1508,6 +1657,12 @@
       </c>
       <c r="P33" s="7">
         <v>630.79999999999995</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>677.4</v>
+      </c>
+      <c r="R33" s="7">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
